--- a/coordinates_sample/605武威郡/605武威郡.xlsx
+++ b/coordinates_sample/605武威郡/605武威郡.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/605武威郡/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D4A9A4-A862-7B4A-B774-C2AF3A1D4967}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="605武威郡" sheetId="1" r:id="rId1"/>
+    <sheet name="605" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>county_han</t>
   </si>
@@ -130,12 +132,16 @@
     <t>PUBLICATION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PUBLICATION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -145,6 +151,12 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Adobe Fangsong Std R"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,6 +191,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -446,16 +461,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -519,7 +534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -551,7 +566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -583,7 +598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -615,7 +630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -647,7 +662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -679,7 +694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -711,7 +726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -743,7 +758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -775,7 +790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -811,4 +826,273 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C5BB16-5444-9343-8A99-053726823744}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>102.5664682</v>
+      </c>
+      <c r="D2">
+        <v>37.927478999999998</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1">
+        <v>60501</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>103.0029054</v>
+      </c>
+      <c r="D3">
+        <v>37.730631199999998</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1">
+        <v>60502</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>103.5895472</v>
+      </c>
+      <c r="D4">
+        <v>39.1190006</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60503</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>102.5761004</v>
+      </c>
+      <c r="D5">
+        <v>38.153772199999999</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1">
+        <v>60504</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>102.9194744</v>
+      </c>
+      <c r="D6">
+        <v>37.587307199999998</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1">
+        <v>60505</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>102.63421940000001</v>
+      </c>
+      <c r="D7">
+        <v>37.878570199999999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1">
+        <v>60506</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>103.0585054</v>
+      </c>
+      <c r="D8">
+        <v>37.616754200000003</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>60507</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>103.7542054</v>
+      </c>
+      <c r="D9">
+        <v>36.523563199999998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1">
+        <v>60508</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>102.72144040000001</v>
+      </c>
+      <c r="D10">
+        <v>37.895300200000001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60509</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>103.0051744</v>
+      </c>
+      <c r="D11">
+        <v>38.548435099999999</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
+        <v>60510</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>